--- a/pred_ohlcv/54_21/2020-01-19 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2838.09791994</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2867.39185204</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2954.62802052</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2722.03744196</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3113.05944196</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2999.07091066</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2775.64865818</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2601.61315818</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2513.45065818</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2242.63235818</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1750.30022296</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2027.17266602</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2317.278645800001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2261.7133458</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4158.36349072</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3813.73019072</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3704.88029072</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3764.69559072</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3646.96899072</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3736.07748047</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3645.992580470001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3626.662758930001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3626.662758930001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3576.077859550001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3527.75175955</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>3523.72226016</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>3573.21334865</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3585.23824925</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3647.74485288</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>3684.63004442</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>3840.79968231</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>3841.37948291</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3821.61818231</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>3874.58896174</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3798.57616176</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3970.344285549999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3970.344285549999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3970.344285549999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3857.195092459999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3791.071891859999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3791.071891859999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3793.392792459999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3897.533091859999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3898.633195489999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3857.624294889999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3874.446395489999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3916.058094889999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3940.858596089999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3875.814694889999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3902.493309379999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3894.558205149999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3821.266602739999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3844.254203339999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3843.720903339999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3843.724903339999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3821.773603339999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3903.645948439999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3927.467348439999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3986.509741729998</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3986.509741729998</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3986.509741729998</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>4359.161841729999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4359.161841729999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>4373.841641729999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4416.552218399998</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>4416.552218399998</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>4419.202018399998</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>4419.202018399998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>4419.202018399998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>4343.662818399998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>4347.278318399998</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>4347.278318399998</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>4347.278318399998</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>4347.278318399998</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>4347.278318399998</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>4453.615118399998</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>4460.047218399998</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>4486.491618399999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>4595.888118399998</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>4558.777418399998</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>4559.013418399998</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>4527.834818399998</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>4522.041118399998</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>4483.384558789998</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>4473.487458789998</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4473.487458789998</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4473.020958789997</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>4513.849458789997</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>4513.849458789997</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>4512.849458789997</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>4513.159458789997</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>4485.801258789998</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4489.422858789998</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4502.425558789998</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4521.012758789998</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4540.696558789998</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4603.150258789998</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4535.503594419998</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4548.059194419998</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4548.044194419997</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4529.907094419998</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4500.934894419997</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4500.934894419997</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4490.286194419998</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4482.831594419998</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4444.701194419998</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4343.389494419997</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4365.073094419998</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4361.633594419997</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4381.402594419998</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4381.087794419997</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4312.107694419998</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4312.107694419998</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4289.219094419997</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4289.219094419997</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4336.851394419998</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4336.851394419998</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4329.458594419998</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4329.458594419998</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4329.458594419998</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4315.993494419998</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>4278.552194419997</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4319.812294419998</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4276.292394419997</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4276.292394419997</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4236.470094419998</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>4284.738294419998</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>4249.540094419998</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>4177.993294419998</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>4017.230094419998</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3949.416894419998</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3988.304394419998</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>4037.502994419998</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3919.248994419998</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3777.403670649998</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2895.618850059998</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>2988.327605469998</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2907.590630499998</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2871.278730499998</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2900.611391899998</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2988.826691899998</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2949.549991899998</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2965.547691899998</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2857.747491899998</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>2936.748891899998</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>2937.408014969998</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>2883.507514969998</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>2927.857515889998</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2849.193215889998</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>2832.295815889998</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2811.926763149998</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2878.684763149998</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>2875.510463149998</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2908.068774949998</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2895.895174949998</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2908.466774949998</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2954.145835289998</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2971.429835289998</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2965.657635289998</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2967.047735289998</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2963.305317549999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2971.343870919999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2945.487170919999</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2970.846538969998</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2916.968438969998</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2832.237112349998</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>2748.464012349998</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>2751.400421219998</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2751.795869909998</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>2751.795869909998</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>2758.605964069998</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2661.841864069998</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2652.061264069998</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2745.708865619998</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>2743.708865619998</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2612.314865619998</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2626.461165619998</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2613.962065619998</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>2595.671465619998</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>2595.671465619998</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2483.456665619998</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2473.487553849998</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2485.111053849998</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2354.418853849998</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2390.608653849999</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>2390.594653849998</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>2390.594653849998</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>2390.596653849998</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>2353.549153849998</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>2309.906453849998</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>2305.841753849998</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>2317.571053849998</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2324.746253849999</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2305.566753849998</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>2305.566753849998</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2300.643153849998</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2304.303653849998</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2308.398253849998</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2308.398253849998</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2316.670553849998</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2270.169753849998</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2299.658153849999</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>2299.658153849999</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2309.588753849999</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>2309.588753849999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2309.433553849999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2407.030953849999</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2798.785229109999</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2798.785229109999</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2803.017529109999</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>2956.705795759999</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>2830.558362409999</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2963.903109299999</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2869.057209299999</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2803.579609299999</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2997.209414079999</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2829.113586229999</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2829.113586229999</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2829.113586229999</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2597.269186229999</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2754.721906599999</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>609.305751509999</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>630.244022189999</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>630.244022189999</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>644.037123839999</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>590.227823839999</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>640.109760489999</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>472.7937527699989</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>531.3807527699989</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>531.3807527699989</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>403.004146249999</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>526.0919384899989</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>406.0452832999989</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>467.2908714699989</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>393.1842714699989</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>383.4604714699989</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>360.387407259999</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>360.387407259999</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>342.590707259999</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>309.103307259999</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>272.620207259999</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>285.818808039999</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>257.440308039999</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>250.045508039999</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>155.483308039999</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>32.72390803999903</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>50.63850803999903</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>50.63850803999903</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-56.75826019000097</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-50.38936019000097</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-97.12526019000097</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-97.12526019000097</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-95.24736019000098</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-98.03696019000097</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-78.70436019000097</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-113.009860190001</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-506.8670604900011</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-769.5733955500011</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-960.6364955500011</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-1060.864195550001</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-505.8478955500011</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>254.8566147899988</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>188.6528131599989</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>404.5059115299989</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>317.8020098999988</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>272.0830055399989</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>12.12260553999886</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-645.3013944600011</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-393.7601388500011</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-610.7990089000011</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-385.3497102800011</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-204.1552089000011</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-859.4291837800008</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-438.2458837800008</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-162.1956726200008</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-241.5871726200008</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-289.8293710800008</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-436.6412710800008</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-108.1370710800008</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>341.7217289199992</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>1242.887456339999</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>1313.770156339999</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>1297.503356339999</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>1219.366456339999</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>915.9302973099991</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>908.0155973099991</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>991.6640973099991</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>1084.619197309999</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>1110.245204809999</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>1022.510804809999</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>1046.786104809999</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>1014.991825249999</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>951.226325249999</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>951.226325249999</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>770.737530089999</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>703.9303300899991</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-835.057594830001</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-835.057594830001</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-930.352494830001</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-767.193794830001</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-734.111793470001</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-785.882693470001</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-812.3732660400012</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-891.8325660400012</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-851.6753660400012</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-1208.532866040001</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-1447.655266040001</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-1217.003666040001</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-593.8506408600012</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-520.6502408600013</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-520.6502408600013</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-520.6502408600013</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>817.1019220999988</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>928.1938384499987</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>894.7970384499987</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-644.844469300001</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-644.844469300001</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-665.519346910001</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-721.001346910001</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-697.919146910001</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-955.9918173700009</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-852.6243173700009</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-1107.156717370001</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-870.977717370001</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-797.920026380001</v>
       </c>
       <c r="H1333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2838.09791994</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2867.39185204</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2954.62802052</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2722.03744196</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3113.05944196</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2999.07091066</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2775.64865818</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2601.61315818</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2513.45065818</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2242.63235818</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1750.30022296</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3214.91254471</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3799.47369072</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3799.47369072</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3851.50069072</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4051.11334581</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>4220.73199072</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4158.36349072</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3813.73019072</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3704.88029072</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3764.69559072</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3646.96899072</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3646.96899072</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3660.279290720001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3626.745487170001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3736.07748047</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3726.187480470001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3626.662758930001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2895.618850059998</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>2988.327605469998</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2907.590630499998</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2871.278730499998</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2900.611391899998</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2988.826691899998</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2949.549991899998</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2965.547691899998</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2857.747491899998</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>2936.748891899998</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>2937.408014969998</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>2883.507514969998</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>2927.857515889998</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2849.193215889998</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>2832.295815889998</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2811.926763149998</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>2878.684763149998</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>2875.510463149998</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2908.068774949998</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2895.895174949998</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2908.466774949998</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>2954.145835289998</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>2971.429835289998</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>2965.657635289998</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>2967.047735289998</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>2963.305317549999</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2971.343870919999</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2945.487170919999</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2970.846538969998</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2916.968438969998</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2832.237112349998</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>2748.464012349998</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>2751.400421219998</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2751.795869909998</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>2751.795869909998</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>2758.605964069998</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2661.841864069998</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2652.061264069998</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2745.708865619998</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>2743.708865619998</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2612.314865619998</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2626.461165619998</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2613.962065619998</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>2595.671465619998</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>2595.671465619998</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2483.454665619998</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2483.456665619998</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2473.487553849998</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2485.111053849998</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>2354.418853849998</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>2390.608653849999</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>2390.594653849998</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>2390.594653849998</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>2390.596653849998</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>2353.549153849998</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>2309.906453849998</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>2305.841753849998</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>2317.571053849998</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>2324.746253849999</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2305.566753849998</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>2305.566753849998</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2300.643153849998</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2304.303653849998</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2308.398253849998</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2308.398253849998</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2316.670553849998</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2270.169753849998</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2299.658153849999</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>2299.658153849999</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>2309.588753849999</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>2309.588753849999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2309.433553849999</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>2407.030953849999</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>2798.785229109999</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>2798.785229109999</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>2803.017529109999</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>2956.705795759999</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>2830.558362409999</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2983.832249389998</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2665.541652479999</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2597.269186229999</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2754.721906599999</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>609.305751509999</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>630.244022189999</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>630.244022189999</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>644.037123839999</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>590.227823839999</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>640.109760489999</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>472.7937527699989</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>531.3807527699989</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>531.3807527699989</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>403.004146249999</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>526.0919384899989</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>406.0452832999989</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>467.2908714699989</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>393.1842714699989</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>383.4604714699989</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>360.387407259999</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>360.387407259999</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>342.590707259999</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>309.103307259999</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>272.620207259999</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>285.818808039999</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>257.440308039999</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>250.045508039999</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>155.483308039999</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>32.72390803999903</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>50.63850803999903</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>50.63850803999903</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>1.938608039999032</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-32.99942466000097</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-56.75826019000097</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-50.38936019000097</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-97.12526019000097</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-97.12526019000097</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-95.24736019000098</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-98.03696019000097</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-78.70436019000097</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-113.009860190001</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-506.8670604900011</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-769.5733955500011</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-960.6364955500011</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-1060.864195550001</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-505.8478955500011</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>254.8566147899988</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>188.6528131599989</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>404.5059115299989</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>317.8020098999988</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>272.0830055399989</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>12.12260553999886</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-645.3013944600011</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-393.7601388500011</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-610.7990089000011</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-385.3497102800011</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-204.1552089000011</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-859.4291837800008</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-438.2458837800008</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-162.1956726200008</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-241.5871726200008</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-289.8293710800008</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-436.6412710800008</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-108.1370710800008</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>341.7217289199992</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>1242.887456339999</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>1313.770156339999</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>1297.503356339999</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>1219.366456339999</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>915.9302973099991</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>908.0155973099991</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>991.6640973099991</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>1084.619197309999</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>1110.245204809999</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>1022.510804809999</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>1046.786104809999</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>1014.991825249999</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>951.226325249999</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>951.226325249999</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>770.737530089999</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>703.9303300899991</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-835.057594830001</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-835.057594830001</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-930.352494830001</v>
       </c>
       <c r="H981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-767.193794830001</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-734.111793470001</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-785.882693470001</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-617.7881934700009</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-812.3732660400012</v>
       </c>
       <c r="H1009">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-891.8325660400012</v>
       </c>
       <c r="H1010">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-851.6753660400012</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-1447.655266040001</v>
       </c>
       <c r="H1013">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-1217.003666040001</v>
       </c>
       <c r="H1014">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-520.6502408600013</v>
       </c>
       <c r="H1026">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>817.1019220999988</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>928.1938384499987</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>894.7970384499987</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-644.844469300001</v>
       </c>
       <c r="H1324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-644.844469300001</v>
       </c>
       <c r="H1325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-665.519346910001</v>
       </c>
       <c r="H1326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-721.001346910001</v>
       </c>
       <c r="H1327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-697.919146910001</v>
       </c>
       <c r="H1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-955.9918173700009</v>
       </c>
       <c r="H1329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-852.6243173700009</v>
       </c>
       <c r="H1330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-1107.156717370001</v>
       </c>
       <c r="H1331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-870.977717370001</v>
       </c>
       <c r="H1332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-797.920026380001</v>
       </c>
       <c r="H1333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
